--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50034.17765819061</v>
+        <v>9956801.353979919</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50034.17765819061</v>
+        <v>9956801.353979919</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035620973.02397</v>
+        <v>42390191.42250036</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8623.531439961829</v>
+        <v>944879.3210349334</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16642.66194867192</v>
+        <v>1794958.823259434</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24661.79245738201</v>
+        <v>2645038.325483936</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32982.92734066587</v>
+        <v>3505991.670132681</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41249.41979970731</v>
+        <v>4356071.172357183</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49515.91225874874</v>
+        <v>5206150.674581684</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57782.40471779017</v>
+        <v>6056230.176806183</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66048.8971768316</v>
+        <v>6906309.67903068</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74315.38963587303</v>
+        <v>7756389.181255179</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82581.88209491444</v>
+        <v>8606468.683479678</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90848.37455395586</v>
+        <v>9456548.185704181</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99114.86701299727</v>
+        <v>10306627.68792869</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107381.3594720387</v>
+        <v>11156707.1901532</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115647.8519310801</v>
+        <v>12006786.6923777</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123914.3443901215</v>
+        <v>12856866.19460221</v>
       </c>
     </row>
   </sheetData>
